--- a/data/trans_bre/P2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,17</t>
+          <t>20,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>24,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>-5,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>27,71%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35,13%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 6,44</t>
+          <t>-13,79; -1,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 39,34</t>
+          <t>-2,73; 58,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 24,59</t>
+          <t>-2,06; 58,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,04; 27,71</t>
+          <t>-1,56; 64,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 7,12</t>
+          <t>0,0; 7,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 72,43</t>
+          <t>-13,79; -1,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 34,9</t>
+          <t>-2,74; 155,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 39,85</t>
+          <t>-2,13; 155,96</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 204,11</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,6</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,66</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>-2,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,89%</t>
+          <t>-0,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,03%</t>
+          <t>-2,5%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 1,32</t>
+          <t>-6,17; 2,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 1,59</t>
+          <t>-5,02; 5,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,66; -1,08</t>
+          <t>-7,65; 3,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 1,11</t>
+          <t>-6,3; 6,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 1,38</t>
+          <t>-3,86; 5,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 1,64</t>
+          <t>-6,25; 2,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,1; -1,22</t>
+          <t>-5,22; 5,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 1,16</t>
+          <t>-8,05; 3,82</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-6,57; 7,13</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 6,32</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,42%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 9,46</t>
+          <t>-3,0; 6,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 11,34</t>
+          <t>-2,95; 6,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 7,38</t>
+          <t>-0,97; 9,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 5,68</t>
+          <t>-5,0; 6,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 10,81</t>
+          <t>-6,4; 3,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 13,06</t>
+          <t>-3,06; 7,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 8,32</t>
+          <t>-2,99; 7,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 6,37</t>
+          <t>-1,02; 11,17</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 6,74</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 3,88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,04%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 8,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 3,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 3,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 10,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 3,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 3,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,27</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-1,15%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 1,79</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 13,93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 13,74</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 16,39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 3,13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 1,86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 16,83</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 16,85</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 21,4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 3,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,27</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>20,38</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>20,6</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>24,83</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-5,27%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>27,44%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>27,71%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>35,13%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1,33%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-5.268037444792628</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>19.8827310645909</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>20.33752276237191</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>25.21894085877567</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1.429771764394716</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.05268037444792628</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2641191925565144</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2703284675777675</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.3558122862683009</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.01450510757647062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,79; -1,61</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,73; 58,34</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 58,55</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 64,41</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,92</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-13,79; -1,61</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 155,49</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 155,96</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 204,11</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.79114955290701</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.8247313350242399</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.398875970702587</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.2158158130365163</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1379114955290701</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.008705375226700554</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.001777087926711013</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.002901733413818519</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-1.611261142617472</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>55.88378339498964</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>55.15068238793558</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>63.49334394703908</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>8.662021012288509</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>-0.01611261142617472</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.325593510481904</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.282189940458503</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.91854715691823</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.09453818013898554</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,97</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,35</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,02%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,03%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-2,5%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,17%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,17; 2,15</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,02; 5,38</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,65; 3,46</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,3; 6,3</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,86; 5,79</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-6,25; 2,22</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 5,93</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-8,05; 3,82</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-6,57; 7,13</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 6,32</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.9674648513341</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.9786842217312963</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.957733031541931</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.4028199435699986</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.04419522742564741</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.02016585709182011</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.01053877470682844</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.02107245296150639</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.004398600150839533</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.0004604424554635541</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,33%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,06%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-1,42%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.169035560714666</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.803894955496051</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.982108635918589</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.814854083631118</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-3.772255313548519</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.06254091096768813</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.04960482155802969</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.08599855618724087</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.06137100966200921</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.03837310710953416</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 6,75</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 6,54</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 9,78</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,0; 6,12</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 3,6</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 7,36</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-2,99; 7,1</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 11,17</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 6,74</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-6,59; 3,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.147892809106281</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.228083116547479</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.62530704201395</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.999498629112734</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>5.006927591294967</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.02219318572848539</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.09482551231941917</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.05151124211258477</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.07932075358550693</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.05413497252288144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.38106487064299</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.794636559439612</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.7797037769986</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.7800892766536394</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-1.068542774545256</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.01452011908884479</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.02977872454208243</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.04078653734901563</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.008342638712430926</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.01118295540090606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.997499972985697</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.910618342648915</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.8533235223918089</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.55200427149229</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-6.413994711969561</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.03059668035919471</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.01934056057096219</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.009030170065281026</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.05706784797593128</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.06530172270453628</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.747388690557413</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.45467969982108</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.641540568027441</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.651466359422798</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>4.130172693257481</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.07357266159903375</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1319582837273133</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1097759497996454</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.06234064062155711</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.04614553345855426</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,12</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,48</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,27</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,16</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-1,15%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,78%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>4,65%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-0,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 1,79</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 13,93</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 13,74</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 16,39</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 3,13</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 1,86</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 16,83</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 16,85</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 21,4</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 3,32</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.1184045632183</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.367444515593233</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.307210706434605</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.136227798495451</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.01090983730328565</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.01153352662049148</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.048104288629359</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.03654528746730776</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.04628128210576356</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.0001133308540903161</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.568273981680573</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3151893051411201</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.461428256793808</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.065418790379148</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.00615473840393</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.03628195744123184</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.003136241020734304</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.01556162808698888</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.01174472708720488</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.03076749170794901</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.785292340388813</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.2678017714201</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.09440407678788</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>14.86769960038906</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.134522433038148</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.0185782769995833</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.147334438744694</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1321442380323787</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1888396193310347</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.03306159767572801</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
